--- a/统计.xlsx
+++ b/统计.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>任务列表</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -87,6 +87,17 @@
   </si>
   <si>
     <t>2017.3.19</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>微软 program manager</t>
+    <rPh sb="0" eb="1">
+      <t>wei'ruan</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.3.22</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -325,8 +336,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:G7" totalsRowShown="0">
-  <autoFilter ref="B2:G7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:G8" totalsRowShown="0">
+  <autoFilter ref="B2:G8"/>
   <tableColumns count="6">
     <tableColumn id="1" name="我的任务" dataDxfId="3"/>
     <tableColumn id="4" name="开始日期"/>
@@ -553,10 +564,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:G7"/>
+  <dimension ref="B1:G8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -683,10 +694,23 @@
       </c>
       <c r="G7" s="2"/>
     </row>
+    <row r="8" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="10">
+        <f>--(Table1[[#This Row],[完成百分比]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="E3:E7">
+  <conditionalFormatting sqref="E3:E8">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -705,7 +729,7 @@
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="这不是列出的值。" error="请在列表中选择一个值。" sqref="E3:E7">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="这不是列出的值。" error="请在列表中选择一个值。" sqref="E3:E8">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
   </dataValidations>
@@ -739,7 +763,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E3:E7</xm:sqref>
+          <xm:sqref>E3:E8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="8" id="{04B8B5C2-C7B5-4FE5-B018-764654046486}">
@@ -758,7 +782,7 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F3:F7</xm:sqref>
+          <xm:sqref>F3:F8</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/统计.xlsx
+++ b/统计.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>任务列表</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -98,6 +98,104 @@
   </si>
   <si>
     <t>2017.3.22</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>百姓网（前端、数据仓库）</t>
+    <rPh sb="0" eb="1">
+      <t>bai'xing'wang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qian'duan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shu'ju'cang'ku</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.3.22</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>大众点评(Web前端)</t>
+    <rPh sb="0" eb="1">
+      <t>da'zhong'dian'ping</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qian'duan</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.3.22</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>米哈游(web前端)</t>
+    <rPh sb="0" eb="1">
+      <t>mi'ha'you</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>qian'duan</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.3.22</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>携程（大数据分析工程师）</t>
+    <rPh sb="0" eb="1">
+      <t>xie'cheng</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>da'shu'ju</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fen'xi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gong'cheng'shi</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到电面</t>
+    <rPh sb="0" eb="1">
+      <t>shou'dao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dian'mian</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>拒</t>
+    <rPh sb="0" eb="1">
+      <t>ju'jue</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试结束</t>
+    <rPh sb="0" eb="1">
+      <t>bi'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'shu</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>错过笔试</t>
+    <rPh sb="0" eb="1">
+      <t>cuo'guo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bi'shi</t>
+    </rPh>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -336,8 +434,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:G8" totalsRowShown="0">
-  <autoFilter ref="B2:G8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:G12" totalsRowShown="0">
+  <autoFilter ref="B2:G12"/>
   <tableColumns count="6">
     <tableColumn id="1" name="我的任务" dataDxfId="3"/>
     <tableColumn id="4" name="开始日期"/>
@@ -564,10 +662,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:G8"/>
+  <dimension ref="B1:G12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -624,9 +722,8 @@
       <c r="E3" s="8">
         <v>0</v>
       </c>
-      <c r="F3" s="7">
-        <f>--(Table1[[#This Row],[完成百分比]]&gt;=1)</f>
-        <v>0</v>
+      <c r="F3" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="G3" s="5"/>
     </row>
@@ -638,7 +735,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E4" s="8">
         <v>0.5</v>
@@ -657,7 +754,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E5" s="9">
         <v>1</v>
@@ -688,6 +785,9 @@
       <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="D7" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="F7" s="10">
         <f>--(Table1[[#This Row],[完成百分比]]&gt;=1)</f>
         <v>0</v>
@@ -707,10 +807,62 @@
       </c>
       <c r="G8" s="2"/>
     </row>
+    <row r="9" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="10">
+        <f>--(Table1[[#This Row],[完成百分比]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="10">
+        <f>--(Table1[[#This Row],[完成百分比]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="10">
+        <f>--(Table1[[#This Row],[完成百分比]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="10">
+        <f>--(Table1[[#This Row],[完成百分比]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="E3:E8">
+  <conditionalFormatting sqref="E3:E12">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -729,7 +881,7 @@
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="这不是列出的值。" error="请在列表中选择一个值。" sqref="E3:E8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="这不是列出的值。" error="请在列表中选择一个值。" sqref="E3:E12">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
   </dataValidations>
@@ -763,7 +915,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E3:E8</xm:sqref>
+          <xm:sqref>E3:E12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="8" id="{04B8B5C2-C7B5-4FE5-B018-764654046486}">
@@ -782,7 +934,7 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F3:F8</xm:sqref>
+          <xm:sqref>F3:F12</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
